--- a/Unity/Assets/Config/Excel/Data/CastConfig.xlsx
+++ b/Unity/Assets/Config/Excel/Data/CastConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29100" windowHeight="14540"/>
+    <workbookView windowHeight="16760"/>
   </bookViews>
   <sheets>
     <sheet name="CastProto" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="40">
   <si>
     <t>##var</t>
   </si>
@@ -25,6 +25,12 @@
     <t>TotalTime</t>
   </si>
   <si>
+    <t>CoolDown</t>
+  </si>
+  <si>
+    <t>StatusSkill</t>
+  </si>
+  <si>
     <t>SelectType</t>
   </si>
   <si>
@@ -83,6 +89,12 @@
   </si>
   <si>
     <t>总时长</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
+    <t>状态技能</t>
   </si>
   <si>
     <t>目标选择方式</t>
@@ -758,11 +770,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1112,29 +1124,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.6" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="21.1634615384615" style="4" customWidth="1"/>
-    <col min="2" max="3" width="12.6634615384615" style="4" customWidth="1"/>
-    <col min="4" max="4" width="17.1634615384615" style="4" customWidth="1"/>
-    <col min="5" max="5" width="18.6634615384615" style="4" customWidth="1"/>
-    <col min="6" max="7" width="18.1538461538462" style="4" customWidth="1"/>
-    <col min="8" max="9" width="21.3365384615385" style="4" customWidth="1"/>
-    <col min="10" max="10" width="22.4615384615385" style="4" customWidth="1"/>
-    <col min="11" max="12" width="17.4615384615385" style="4" customWidth="1"/>
-    <col min="13" max="14" width="24.8461538461538" style="4" customWidth="1"/>
-    <col min="15" max="15" width="16.0769230769231" style="4" customWidth="1"/>
-    <col min="16" max="16" width="14.6153846153846" style="4" customWidth="1"/>
-    <col min="17" max="16384" width="9" style="4"/>
+    <col min="2" max="5" width="12.6634615384615" style="4" customWidth="1"/>
+    <col min="6" max="6" width="17.1634615384615" style="4" customWidth="1"/>
+    <col min="7" max="7" width="18.6634615384615" style="4" customWidth="1"/>
+    <col min="8" max="9" width="18.1538461538462" style="4" customWidth="1"/>
+    <col min="10" max="11" width="21.3365384615385" style="4" customWidth="1"/>
+    <col min="12" max="12" width="22.4615384615385" style="4" customWidth="1"/>
+    <col min="13" max="14" width="17.4615384615385" style="4" customWidth="1"/>
+    <col min="15" max="16" width="24.8461538461538" style="4" customWidth="1"/>
+    <col min="17" max="17" width="16.0769230769231" style="4" customWidth="1"/>
+    <col min="18" max="18" width="14.6153846153846" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:16">
+    <row r="1" s="1" customFormat="1" ht="16.8" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,108 +1195,126 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:16">
+    <row r="2" s="2" customFormat="1" ht="16.8" spans="1:18">
       <c r="A2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="16.8" spans="1:16">
+    <row r="3" s="1" customFormat="1" ht="16.8" spans="1:18">
       <c r="A3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:18">
       <c r="B4" s="3">
         <v>1</v>
       </c>
@@ -1292,70 +1322,84 @@
         <v>1000</v>
       </c>
       <c r="D4" s="3">
-        <v>2</v>
+        <v>2000</v>
       </c>
       <c r="E4" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F4" s="3">
         <v>2</v>
       </c>
       <c r="G4" s="3">
+        <v>5</v>
+      </c>
+      <c r="H4" s="3">
+        <v>2</v>
+      </c>
+      <c r="I4" s="3">
         <v>1001</v>
       </c>
-      <c r="H4" s="6">
+      <c r="J4" s="7">
         <v>0</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3">
+      <c r="K4" s="7"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3">
         <v>2001</v>
-      </c>
-      <c r="N4" s="4">
-        <v>2</v>
-      </c>
-      <c r="O4" s="4">
-        <v>1</v>
       </c>
       <c r="P4" s="4">
         <v>2</v>
       </c>
+      <c r="Q4" s="4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:14">
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
     </row>
-    <row r="6" s="3" customFormat="1" spans="6:9">
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+    <row r="6" s="3" customFormat="1" spans="8:11">
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14">
       <c r="A7" s="5"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
     </row>
   </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="单位：ms" sqref="D4:D1048576"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="任意时刻，只有任一状态技能生效" sqref="E4:E1048576"/>
+  </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
